--- a/Data/Burundi final test v2.xlsx
+++ b/Data/Burundi final test v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theresa\Documents\Studium\Master\2. Semester\Case Studies\IRP-framework-master\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A217547-46F3-4D6E-9938-7EC57CE25588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF005740-96F4-4079-9E40-173EF51FD6C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -406,18 +406,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -484,7 +478,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -492,178 +486,11 @@
   <dxfs count="31">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -962,6 +789,34 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -994,21 +849,7 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1040,11 +881,164 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1070,50 +1064,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0AFBE7F-EE6B-43D3-AC29-0F1EA5EDD28B}" name="Tabelle1" displayName="Tabelle1" ref="A1:K16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K16" xr:uid="{92D50160-D1EB-4CE0-BC5E-AD10E29A0DA1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0AFBE7F-EE6B-43D3-AC29-0F1EA5EDD28B}" name="Tabelle1" displayName="Tabelle1" ref="A1:K16" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in mt" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in mt" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{8C005587-5BD7-4A0F-A7C5-F8E1AD8666E0}" name="Lower" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{6E875271-034D-4F07-BB60-56AAB571D1F0}" name="Initial" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{D05CCBD5-F14E-46D5-BC67-17C58FC0BB3E}" name="Storage Cost" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in mt" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in mt" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{8C005587-5BD7-4A0F-A7C5-F8E1AD8666E0}" name="Lower" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{6E875271-034D-4F07-BB60-56AAB571D1F0}" name="Initial" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{D05CCBD5-F14E-46D5-BC67-17C58FC0BB3E}" name="Storage Cost" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G4" xr:uid="{864CDD6B-12DB-4E16-9534-F378F26389A1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C88B342E-860D-4CF9-9409-9BF05B92DC07}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C88B342E-860D-4CF9-9409-9BF05B92DC07}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A1:E28" xr:uid="{140EAF9C-EBEB-4D6E-AEE7-0C012A648023}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{08A0981D-418C-4F7D-91CF-9CE660861A78}" name="Warehouse" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C734B396-0019-4F10-9D39-4B9C17A0C025}" name="Plate Nr" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{B2ECE29D-B197-48F8-ACC0-D09288F3CD21}" name="Make" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{9A05CAC1-95C8-4D47-8F85-9866F7615220}" name="Model" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2110263D-43E8-4495-99BB-86FD4A69533A}" name="Capacity in MT" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{08A0981D-418C-4F7D-91CF-9CE660861A78}" name="Warehouse" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C734B396-0019-4F10-9D39-4B9C17A0C025}" name="Plate Nr" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B2ECE29D-B197-48F8-ACC0-D09288F3CD21}" name="Make" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9A05CAC1-95C8-4D47-8F85-9866F7615220}" name="Model" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{2110263D-43E8-4495-99BB-86FD4A69533A}" name="Capacity in MT" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1419,20 +1412,20 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.53125" style="1"/>
     <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.53125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.796875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.53125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1502,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1537,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1572,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1607,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1642,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1677,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1712,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1747,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1782,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1817,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1852,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1887,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1922,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1957,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2008,16 +2001,16 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2040,7 +2033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2051,7 +2044,7 @@
         <v>29.352</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>11917</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -2063,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2074,7 +2067,7 @@
         <v>29.821000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>10000</v>
+        <v>11917</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2086,7 +2079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2097,7 +2090,7 @@
         <v>29.928000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>10000</v>
+        <v>11917</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2125,9 +2118,9 @@
       <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -2144,7 +2137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
@@ -2161,7 +2154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
@@ -2178,7 +2171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -2195,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -2212,7 +2205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>36</v>
       </c>
@@ -2229,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -2246,7 +2239,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2263,7 +2256,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -2280,7 +2273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>54</v>
       </c>
@@ -2297,7 +2290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>54</v>
       </c>
@@ -2314,7 +2307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>54</v>
       </c>
@@ -2331,7 +2324,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
@@ -2348,7 +2341,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>54</v>
       </c>
@@ -2365,7 +2358,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>54</v>
       </c>
@@ -2382,7 +2375,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>54</v>
       </c>
@@ -2399,7 +2392,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>54</v>
       </c>
@@ -2416,7 +2409,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
@@ -2433,7 +2426,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>54</v>
       </c>
@@ -2450,7 +2443,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>67</v>
       </c>
@@ -2467,7 +2460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>67</v>
       </c>
@@ -2484,7 +2477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>67</v>
       </c>
@@ -2501,7 +2494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>67</v>
       </c>
@@ -2518,7 +2511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>67</v>
       </c>
@@ -2535,7 +2528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
@@ -2552,7 +2545,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>67</v>
       </c>
@@ -2569,7 +2562,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>67</v>
       </c>
@@ -2586,7 +2579,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>67</v>
       </c>

--- a/Data/Burundi final test v2.xlsx
+++ b/Data/Burundi final test v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF005740-96F4-4079-9E40-173EF51FD6C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AC8B5C-38F0-4BAC-93A7-582A5C063AFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -120,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
   <si>
     <t>Name_ID</t>
   </si>
@@ -165,15 +163,6 @@
   </si>
   <si>
     <t>BUGEGA</t>
-  </si>
-  <si>
-    <t>Ngozi Warehouse</t>
-  </si>
-  <si>
-    <t>Gitega Warehouse</t>
-  </si>
-  <si>
-    <t>Bujumbura Warehouse</t>
   </si>
   <si>
     <t>Lower</t>
@@ -496,24 +485,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -758,6 +729,24 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1089,24 +1078,24 @@
     <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C88B342E-860D-4CF9-9409-9BF05B92DC07}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C88B342E-860D-4CF9-9409-9BF05B92DC07}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:E28" xr:uid="{140EAF9C-EBEB-4D6E-AEE7-0C012A648023}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{08A0981D-418C-4F7D-91CF-9CE660861A78}" name="Warehouse" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C734B396-0019-4F10-9D39-4B9C17A0C025}" name="Plate Nr" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B2ECE29D-B197-48F8-ACC0-D09288F3CD21}" name="Make" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9A05CAC1-95C8-4D47-8F85-9866F7615220}" name="Model" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{2110263D-43E8-4495-99BB-86FD4A69533A}" name="Capacity in MT" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{08A0981D-418C-4F7D-91CF-9CE660861A78}" name="Warehouse" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C734B396-0019-4F10-9D39-4B9C17A0C025}" name="Plate Nr" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B2ECE29D-B197-48F8-ACC0-D09288F3CD21}" name="Make" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9A05CAC1-95C8-4D47-8F85-9866F7615220}" name="Model" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2110263D-43E8-4495-99BB-86FD4A69533A}" name="Capacity in MT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1411,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
@@ -1448,16 +1437,16 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -1602,7 +1591,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>635</v>
@@ -1637,7 +1626,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>1168</v>
@@ -1672,7 +1661,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>590</v>
@@ -1707,7 +1696,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>847</v>
@@ -1742,7 +1731,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>848</v>
@@ -1777,7 +1766,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>708</v>
@@ -1812,7 +1801,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>903</v>
@@ -1847,7 +1836,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
         <v>635</v>
@@ -2000,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5307C4E-D51E-4E16-960B-CB790613AD8F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2021,21 +2010,21 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1">
         <v>-3.36</v>
@@ -2050,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -2058,7 +2047,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1">
         <v>-2.911</v>
@@ -2081,7 +2070,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>-3.4279999999999999</v>
@@ -2115,40 +2104,43 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="16.265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
       <c r="E2" s="9">
         <v>18</v>
@@ -2156,16 +2148,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="9">
         <v>18</v>
@@ -2173,16 +2165,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9">
         <v>8</v>
@@ -2190,16 +2182,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="9">
         <v>8</v>
@@ -2207,16 +2199,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="9">
         <v>8</v>
@@ -2224,13 +2216,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2241,16 +2233,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="9">
         <v>1.5</v>
@@ -2258,13 +2250,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2275,16 +2267,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9">
         <v>18</v>
@@ -2292,16 +2284,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="9">
         <v>8</v>
@@ -2309,13 +2301,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2326,13 +2318,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2343,13 +2335,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2360,13 +2352,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2377,13 +2369,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2394,13 +2386,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2411,16 +2403,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="9">
         <v>1.5</v>
@@ -2428,16 +2420,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="9">
         <v>1.5</v>
@@ -2445,16 +2437,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="9">
         <v>18</v>
@@ -2462,16 +2454,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E21" s="9">
         <v>18</v>
@@ -2479,16 +2471,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E22" s="9">
         <v>18</v>
@@ -2496,16 +2488,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E23" s="9">
         <v>8</v>
@@ -2513,16 +2505,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24" s="9">
         <v>8</v>
@@ -2530,13 +2522,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2547,13 +2539,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2564,16 +2556,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E27" s="9">
         <v>1.5</v>
@@ -2581,13 +2573,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>0</v>

--- a/Data/Burundi final test v2.xlsx
+++ b/Data/Burundi final test v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AC8B5C-38F0-4BAC-93A7-582A5C063AFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D573A8-75F0-4751-9384-5678704B5131}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="435" yWindow="1132" windowWidth="21608" windowHeight="10516" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -132,12 +132,6 @@
     <t>Total Sum of Commodities</t>
   </si>
   <si>
-    <t>Consumption per day in mt</t>
-  </si>
-  <si>
-    <t>Consumption per week in mt</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -340,6 +334,12 @@
   </si>
   <si>
     <t>CD107-69U</t>
+  </si>
+  <si>
+    <t>Consumption per day in MT</t>
+  </si>
+  <si>
+    <t>Consumption per week in MT</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1058,8 @@
     <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="28"/>
     <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="27"/>
     <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in mt" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in mt" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in MT" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in MT" dataDxfId="24"/>
     <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="23"/>
     <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="22"/>
     <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="21"/>
@@ -1400,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1425,33 +1425,33 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>409</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>556</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>664</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>866</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>635</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>1168</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>590</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>847</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>848</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>708</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>903</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>635</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <v>1160</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>548</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
         <v>551</v>
@@ -1989,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5307C4E-D51E-4E16-960B-CB790613AD8F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2004,27 +2004,27 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>-3.36</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>-2.911</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>-3.4279999999999999</v>
@@ -2114,33 +2114,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
       <c r="E2" s="9">
         <v>18</v>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="9">
         <v>18</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
       </c>
       <c r="E4" s="9">
         <v>8</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="9">
         <v>8</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9">
         <v>8</v>
@@ -2216,13 +2216,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2233,16 +2233,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
       </c>
       <c r="E8" s="9">
         <v>1.5</v>
@@ -2250,13 +2250,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2267,16 +2267,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="9">
         <v>18</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="9">
         <v>8</v>
@@ -2301,13 +2301,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2318,13 +2318,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2335,13 +2335,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2352,13 +2352,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2369,13 +2369,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2386,13 +2386,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="9">
         <v>1.5</v>
@@ -2420,16 +2420,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="9">
         <v>1.5</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="9">
         <v>18</v>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9">
         <v>18</v>
@@ -2471,16 +2471,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="9">
         <v>18</v>
@@ -2488,16 +2488,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="9">
         <v>8</v>
@@ -2505,16 +2505,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" s="9">
         <v>8</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2539,13 +2539,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2556,16 +2556,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="9">
         <v>1.5</v>
@@ -2573,13 +2573,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>0</v>
